--- a/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_0_square_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_0_square_10_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.8400000000006</v>
+        <v>25.72000000000058</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.423362852083534e-16</v>
+        <v>1.398706172756103e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>59.29898110707882</v>
+        <v>56.08575447588652</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[54.94370036630737, 63.654261847850265]</t>
+          <t>[52.14841146198581, 60.02309748978724]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.679289766783733</v>
+        <v>1.566079220708426</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.6038160694001942, 1.7547634641672722]</t>
+          <t>[1.490605523324887, 1.641552918091965]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>55.40459359333596</v>
+        <v>53.10600290122731</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[52.606790898471694, 58.20239628820023]</t>
+          <t>[50.389158904544615, 55.82284689791]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.93381381381425</v>
+        <v>19.30930930930974</v>
       </c>
       <c r="X2" t="n">
-        <v>18.62342342342385</v>
+        <v>19.00036036036078</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.24420420420465</v>
+        <v>19.6182582582587</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.91000000000045</v>
+        <v>24.92000000000046</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.423362852083534e-16</v>
+        <v>1.398706172756103e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>56.65356073324742</v>
+        <v>56.49438985732283</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[48.5559263937667, 64.75119507272815]</t>
+          <t>[49.55150808260954, 63.43727163203612]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,25 +680,25 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3207632138800376</v>
+        <v>0.3710790121357315</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.1698158191129604, 0.4717106086471148]</t>
+          <t>[0.2327105669325782, 0.5094474573388847]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>4.689248220191011e-05</v>
+        <v>4.328696017186218e-07</v>
       </c>
       <c r="R3" t="n">
-        <v>4.689248220191011e-05</v>
+        <v>4.328696017186218e-07</v>
       </c>
       <c r="S3" t="n">
-        <v>56.6382594547883</v>
+        <v>53.92042310189908</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[52.08709666907265, 61.18942224050396]</t>
+          <t>[49.99731210792006, 57.843534095878105]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>23.63831831831876</v>
+        <v>23.44824824824868</v>
       </c>
       <c r="X3" t="n">
-        <v>23.03987987988031</v>
+        <v>22.89945945945988</v>
       </c>
       <c r="Y3" t="n">
-        <v>24.23675675675721</v>
+        <v>23.99703703703747</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_0_square_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_0_square_10_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.72000000000058</v>
+        <v>25.77000000000059</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.398706172756103e-16</v>
+        <v>1.412048362003379e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>56.08575447588652</v>
+        <v>59.5876125413444</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[52.14841146198581, 60.02309748978724]</t>
+          <t>[55.58845179935852, 63.586773283330274]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.566079220708426</v>
+        <v>1.578658170272348</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.490605523324887, 1.641552918091965]</t>
+          <t>[1.515763422452732, 1.6415529180919641]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>53.10600290122731</v>
+        <v>55.59644729871391</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[50.389158904544615, 55.82284689791]</t>
+          <t>[52.831679725836224, 58.3612148715916]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>19.30930930930974</v>
+        <v>19.2952552552557</v>
       </c>
       <c r="X2" t="n">
-        <v>19.00036036036078</v>
+        <v>19.03729729729773</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.6182582582587</v>
+        <v>19.55321321321366</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.92000000000046</v>
+        <v>24.78000000000043</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.398706172756103e-16</v>
+        <v>1.412048362003379e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>56.49438985732283</v>
+        <v>56.49718496456841</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[49.55150808260954, 63.43727163203612]</t>
+          <t>[50.22383379797789, 62.770536131158934]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,25 +680,25 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3710790121357315</v>
+        <v>0.09434212172942313</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.2327105669325782, 0.5094474573388847]</t>
+          <t>[-0.03144737390980801, 0.22013161736865428]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>4.328696017186218e-07</v>
+        <v>0.1403861551315209</v>
       </c>
       <c r="R3" t="n">
-        <v>4.328696017186218e-07</v>
+        <v>0.1403861551315209</v>
       </c>
       <c r="S3" t="n">
-        <v>53.92042310189908</v>
+        <v>52.13472393589238</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[49.99731210792006, 57.843534095878105]</t>
+          <t>[47.923800674474755, 56.34564719731001]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>23.44824824824868</v>
+        <v>24.40792792792836</v>
       </c>
       <c r="X3" t="n">
-        <v>22.89945945945988</v>
+        <v>23.91183183183225</v>
       </c>
       <c r="Y3" t="n">
-        <v>23.99703703703747</v>
+        <v>24.90402402402446</v>
       </c>
     </row>
   </sheetData>
